--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>527348.8672978351</v>
+        <v>541075.2254352531</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
+        <v>512047.711698149</v>
+      </c>
+      <c r="D2" t="n">
         <v>512047.7116981491</v>
-      </c>
-      <c r="D2" t="n">
-        <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="F4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="G4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="H4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="I4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="J4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="K4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="L4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="M4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="N4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="O4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="P4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47521.60225547309</v>
+        <v>47521.60225547307</v>
       </c>
       <c r="C6" t="n">
-        <v>47521.60225547326</v>
+        <v>47521.60225547318</v>
       </c>
       <c r="D6" t="n">
-        <v>47521.60225547315</v>
+        <v>47521.60225547324</v>
       </c>
       <c r="E6" t="n">
-        <v>-44778.47892055863</v>
+        <v>-44778.4789205587</v>
       </c>
       <c r="F6" t="n">
         <v>88321.52107944137</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>541075.2254352531</v>
+        <v>457289.8236736281</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
         <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47521.60225547307</v>
+        <v>47477.466476792</v>
       </c>
       <c r="C6" t="n">
-        <v>47521.60225547318</v>
+        <v>47477.466476792</v>
       </c>
       <c r="D6" t="n">
-        <v>47521.60225547324</v>
+        <v>47477.46647679194</v>
       </c>
       <c r="E6" t="n">
-        <v>-44778.4789205587</v>
+        <v>-59588.4957596726</v>
       </c>
       <c r="F6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="G6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="H6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="I6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="J6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="K6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="L6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="M6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="N6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="O6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
       <c r="P6" t="n">
-        <v>88321.52107944137</v>
+        <v>73511.50424032747</v>
       </c>
     </row>
   </sheetData>
